--- a/project.xlsx
+++ b/project.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschlesinger\code\ongoing\openaiworkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{393AEF24-3F2A-4EFB-B426-FC9DAA2A08BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DB0A26-AC16-489B-8D1A-9C3324E62483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Tasks</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Denise</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>- 7- Presentation - Langchain, Vector databases, agents, toolkits (30 mins)</t>
   </si>
   <si>
@@ -89,12 +86,15 @@
   </si>
   <si>
     <t>- 9- Lab #5 - Ask your SQL DB questions in English</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,7 +626,36 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -935,11 +964,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1003,6 +1032,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1011,6 +1043,9 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1019,6 +1054,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1027,6 +1065,9 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1035,6 +1076,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1047,20 +1091,23 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1068,10 +1115,13 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1079,9 +1129,23 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13"/>
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"tbd"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"in progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschlesinger\code\ongoing\openaiworkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DB0A26-AC16-489B-8D1A-9C3324E62483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC7F3C-A018-409A-BF9F-086D999263B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -626,21 +626,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -652,6 +638,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -968,7 +961,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1130,20 +1123,20 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"done"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"in progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"tbd"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"in progress"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"done"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschlesinger\code\ongoing\openaiworkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FC7F3C-A018-409A-BF9F-086D999263B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BBC4A-5835-4280-8223-B8A28A3A1D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Tasks</t>
   </si>
@@ -52,43 +65,49 @@
     <t>skeleton</t>
   </si>
   <si>
-    <t>- 1- Presentation - Introduction to LLMs, GPT and prompts - (30 mins)</t>
-  </si>
-  <si>
     <t>presentation</t>
   </si>
   <si>
-    <t>- 2- Lab #1 - Connect to OpenAI and ask questions</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
-    <t>- 3- Presentation - Prompt engineering, Zero-shot learning, Few-shot learning (30 mins)</t>
-  </si>
-  <si>
-    <t>- 4- Lab #2 - Create prompts for summarization, json, tabular answer</t>
-  </si>
-  <si>
-    <t>- 5- Presentation - Embeddings (30 mins)</t>
-  </si>
-  <si>
-    <t>- 6- Lab #3 - Create embeddings in pandas</t>
-  </si>
-  <si>
     <t>Denise</t>
   </si>
   <si>
-    <t>- 7- Presentation - Langchain, Vector databases, agents, toolkits (30 mins)</t>
-  </si>
-  <si>
-    <t>- 8- Lab #4 - Create embeddings with Faiss and Langchain</t>
-  </si>
-  <si>
-    <t>- 9- Lab #5 - Ask your SQL DB questions in English</t>
-  </si>
-  <si>
     <t>tbd</t>
+  </si>
+  <si>
+    <t>1- Presentation - Introduction to LLMs, GPT and prompts - (30 mins)</t>
+  </si>
+  <si>
+    <t>2- Lab #1 - Connect to OpenAI and ask questions</t>
+  </si>
+  <si>
+    <t>3- Presentation - Prompt engineering, Zero-shot learning, Few-shot learning (30 mins)</t>
+  </si>
+  <si>
+    <t>4- Lab #2 - Create prompts for summarization, json, tabular answer</t>
+  </si>
+  <si>
+    <t>5- Presentation - Embeddings (30 mins)</t>
+  </si>
+  <si>
+    <t>6- Lab #3 - Create embeddings in pandas</t>
+  </si>
+  <si>
+    <t>7- Presentation - Langchain, Vector databases, agents, toolkits (30 mins)</t>
+  </si>
+  <si>
+    <t>9- Lab #5 - Ask your SQL DB questions in English</t>
+  </si>
+  <si>
+    <t>Vladi</t>
+  </si>
+  <si>
+    <t>8- Lab #4 - Search your company's files with OpenAI</t>
+  </si>
+  <si>
+    <t>10- Bonus - Search your company's URLs with OpenAI</t>
   </si>
 </sst>
 </file>
@@ -958,10 +977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,6 +1011,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -1003,6 +1025,9 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -1014,74 +1039,92 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="C5" t="s">
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1089,24 +1132,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -1117,13 +1163,27 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/project.xlsx
+++ b/project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschlesinger\code\ongoing\openaiworkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254BBC4A-5835-4280-8223-B8A28A3A1D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CF5F2-987F-4DDF-AC40-C0AF9BB5BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="project" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -977,10 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1071,10 +1072,10 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1116,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1187,7 +1188,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Vladi"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"in progress"</formula>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschlesinger\code\ongoing\openaiworkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8CF5F2-987F-4DDF-AC40-C0AF9BB5BE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91FE9B-88AF-497C-9740-A1F348BC68D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="project" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
   <si>
     <t>Tasks</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>10- Bonus - Search your company's URLs with OpenAI</t>
+  </si>
+  <si>
+    <t>Create ppt skeleton</t>
+  </si>
+  <si>
+    <t>turn all Denise's labs into notebooks</t>
   </si>
 </sst>
 </file>
@@ -978,10 +984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1103,7 +1109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1173,7 +1179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1187,11 +1193,44 @@
         <v>12</v>
       </c>
     </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D14" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Vladi"/>
+        <filter val="Denise"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="tbd"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dschlesinger\code\ongoing\openaiworkshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF91FE9B-88AF-497C-9740-A1F348BC68D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2BDDCE-25F4-4015-B0A5-253476E2952D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3480" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="project" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">project!$A$1:$D$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Tasks</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>8- Lab #4 - Search your company's files with OpenAI</t>
-  </si>
-  <si>
-    <t>10- Bonus - Search your company's URLs with OpenAI</t>
   </si>
   <si>
     <t>Create ppt skeleton</t>
@@ -983,11 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +1021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1081,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1165,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1184,21 +1180,21 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1207,33 +1203,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D16" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Denise"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="tbd"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"in progress"</formula>
